--- a/progress/data/BoQ.xlsx
+++ b/progress/data/BoQ.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="BoQ" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="336">
   <si>
     <t>Item_Code</t>
   </si>
@@ -1018,6 +1018,18 @@
   </si>
   <si>
     <t xml:space="preserve">Bata khal from km, 0.000 to km. 2.790 km </t>
+  </si>
+  <si>
+    <t>structure_id</t>
+  </si>
+  <si>
+    <t>NSI-02</t>
+  </si>
+  <si>
+    <t>NSI-01</t>
+  </si>
+  <si>
+    <t>NSI-03</t>
   </si>
 </sst>
 </file>
@@ -1055,7 +1067,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1063,31 +1075,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1097,13 +1091,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,1477 +1378,1764 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.109375" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6">
+        <v>243</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>24.681000000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>8270.0830000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6">
+        <v>243</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="1">
         <v>400375.25099999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6">
+        <v>243</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>585.07399999999996</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6">
+        <v>243</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>43.645000000000003</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6">
+        <v>243</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>61.771000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>25.84</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6">
+        <v>243</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D7" s="1">
         <v>3773.6860000000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6">
+        <v>243</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D8" s="1">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>115200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6">
+        <v>243</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D9" s="1">
         <v>218.26599999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>4958.16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6">
+        <v>243</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>29.811</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <v>4958.16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6">
+        <v>243</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D11" s="1">
         <v>128.56200000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6">
+        <v>243</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1">
         <v>107563.501</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="1">
         <v>10.401</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6">
+        <v>243</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1">
         <v>268.70400000000001</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="1">
         <v>399.84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6">
+        <v>243</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D14" s="1">
         <v>1076.8140000000001</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="1">
         <v>118.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6">
+        <v>243</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D15" s="1">
         <v>443.74299999999999</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="1">
         <v>217.36</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6">
+        <v>243</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D16" s="1">
         <v>1090.3309999999999</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="1">
         <v>7.2549999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6">
+        <v>243</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D17" s="1">
         <v>3815.614</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E17" s="1">
         <v>4.8150000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6">
+        <v>243</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D18" s="1">
         <v>3530.9340000000002</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E18" s="1">
         <v>2.395</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6">
+        <v>243</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D19" s="1">
         <v>8282.0069999999996</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E19" s="1">
         <v>1.391</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6">
+        <v>243</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D20" s="1">
         <v>8664.7530000000006</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E20" s="1">
         <v>36.337000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6">
+        <v>243</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D21" s="1">
         <v>743.928</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E21" s="1">
         <v>601.27</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6">
+        <v>243</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D22" s="1">
         <v>1237.595</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E22" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6">
+        <v>243</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D23" s="1">
         <v>627.25199999999995</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E23" s="1">
         <v>207.37</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6">
+        <v>243</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D24" s="1">
         <v>1248.557</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E24" s="1">
         <v>17.3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6">
+        <v>243</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D25" s="1">
         <v>67.992000000000004</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E25" s="1">
         <v>20279.848999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6">
+        <v>243</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D26" s="1">
         <v>73.966999999999999</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E26" s="1">
         <v>10.56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6">
+        <v>243</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D27" s="1">
         <v>10200.521000000001</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E27" s="1">
         <v>241.05</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6">
+        <v>243</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D28" s="1">
         <v>141.559</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="1">
         <v>1040.2470000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6">
+        <v>243</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D29" s="1">
         <v>61.771000000000001</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E29" s="1">
         <v>24.8</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6">
+        <v>243</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="1">
+      <c r="D30" s="1">
         <v>776.10500000000002</v>
       </c>
-      <c r="D30" s="1">
+      <c r="E30" s="1">
         <v>6.9</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6">
+        <v>243</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>708.52800000000002</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>29.55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6">
+        <v>243</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D32" s="1">
         <v>319.02499999999998</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E32" s="1">
         <v>6374</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6">
+        <v>243</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C33" s="1">
+      <c r="D33" s="1">
         <v>988.96600000000001</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E33" s="1">
         <v>172.09800000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6">
+        <v>243</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
         <v>3815.614</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <v>57.966999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="6">
+        <v>243</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="1">
+      <c r="D35" s="1">
         <v>968.822</v>
       </c>
-      <c r="D35" s="1">
+      <c r="E35" s="1">
         <v>43.475000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6">
+        <v>243</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="1">
+      <c r="D36" s="1">
         <v>696.96500000000003</v>
       </c>
-      <c r="D36" s="1">
+      <c r="E36" s="1">
         <v>45.36</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6">
+        <v>243</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="1">
+      <c r="D37" s="1">
         <v>677.57600000000002</v>
       </c>
-      <c r="D37" s="1">
+      <c r="E37" s="1">
         <v>1228.894</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6">
+        <v>243</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <v>128.49199999999999</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <v>3792.5970000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6">
+        <v>243</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <v>135.30099999999999</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <v>1665.337</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="6">
+        <v>243</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C40" s="1">
+      <c r="D40" s="1">
         <v>46.594000000000001</v>
       </c>
-      <c r="D40" s="1">
+      <c r="E40" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="6">
+        <v>243</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="1">
+      <c r="D41" s="1">
         <v>60159.769</v>
       </c>
-      <c r="D41" s="1">
+      <c r="E41" s="1">
         <v>0.309</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="6">
+        <v>243</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C42" s="1">
+      <c r="D42" s="1">
         <v>138.65100000000001</v>
       </c>
-      <c r="D42" s="1">
+      <c r="E42" s="1">
         <v>3357.9</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="6">
+        <v>243</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C43" s="1">
+      <c r="D43" s="1">
         <v>128.59899999999999</v>
       </c>
-      <c r="D43" s="1">
+      <c r="E43" s="1">
         <v>4128.2269999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="6">
+        <v>243</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="1">
+      <c r="D44" s="1">
         <v>86227.824999999997</v>
       </c>
-      <c r="D44" s="1">
+      <c r="E44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="6">
+        <v>243</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C45" s="1">
+      <c r="D45" s="1">
         <v>9836.0840000000007</v>
       </c>
-      <c r="D45" s="1">
+      <c r="E45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="6">
+        <v>243</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C46" s="1">
+      <c r="D46" s="1">
         <v>83657.316999999995</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="1">
+      <c r="B47" s="6">
+        <v>243</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D47" s="1">
         <v>99999.993000000002</v>
       </c>
-      <c r="D47" s="1">
+      <c r="E47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" s="6">
+        <v>244</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D48" s="1">
+        <v>193.953</v>
+      </c>
+      <c r="E48" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C49" s="1">
-        <v>193.953</v>
+      <c r="B49" s="6">
+        <v>244</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D49" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>24.681000000000001</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>241</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="1">
-        <v>24.681000000000001</v>
+      <c r="B50" s="6">
+        <v>244</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D50" s="1">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>122.036</v>
+      </c>
+      <c r="E50" s="1">
+        <v>885.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>241</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="1">
-        <v>122.036</v>
+      <c r="B51" s="6">
+        <v>244</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D51" s="1">
-        <v>885.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>248.536</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1181.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>241</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="6">
         <v>244</v>
       </c>
-      <c r="C52" s="1">
-        <v>248.536</v>
+      <c r="C52" s="2" t="s">
+        <v>245</v>
       </c>
       <c r="D52" s="1">
-        <v>1181.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>163.13900000000001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>885.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>241</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C53" s="1">
-        <v>163.13900000000001</v>
+      <c r="B53" s="6">
+        <v>244</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="D53" s="1">
+        <v>39.527999999999999</v>
+      </c>
+      <c r="E53" s="1">
         <v>885.9</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>241</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="1">
-        <v>39.527999999999999</v>
+      <c r="B54" s="6">
+        <v>244</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D54" s="1">
-        <v>885.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>17.449000000000002</v>
+      </c>
+      <c r="E54" s="1">
+        <v>3395.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>241</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C55" s="1">
-        <v>17.449000000000002</v>
+      <c r="B55" s="6">
+        <v>244</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>248</v>
       </c>
       <c r="D55" s="1">
-        <v>3395.7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C56" s="1">
-        <v>3.8119999999999998</v>
+      <c r="B56" s="6">
+        <v>244</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="D56" s="1">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>122.03100000000001</v>
+      </c>
+      <c r="E56" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>241</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C57" s="1">
-        <v>122.03100000000001</v>
+      <c r="B57" s="6">
+        <v>244</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="D57" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>655.096</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C58" s="1">
-        <v>655.096</v>
+      <c r="B58" s="6">
+        <v>244</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="D58" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10.349</v>
+      </c>
+      <c r="E58" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C59" s="1">
-        <v>10.349</v>
+      <c r="B59" s="6">
+        <v>244</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="D59" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>326.96300000000002</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C60" s="1">
-        <v>326.96300000000002</v>
+      <c r="B60" s="6">
+        <v>244</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="D60" s="1">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>975.42499999999995</v>
+      </c>
+      <c r="E60" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>241</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="1">
-        <v>975.42499999999995</v>
+      <c r="B61" s="6">
+        <v>244</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="D61" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>138.04900000000001</v>
+      </c>
+      <c r="E61" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>241</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C62" s="1">
-        <v>138.04900000000001</v>
+      <c r="B62" s="6">
+        <v>244</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="D62" s="1">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>241</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="1">
         <v>988.96600000000001</v>
       </c>
-      <c r="D63" s="1">
+      <c r="E62" s="1">
         <v>92.53</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="C64" s="4"/>
-    </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="63" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B63" s="6">
+        <v>245</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C65" s="4">
+      <c r="D63" s="3">
         <v>193.953</v>
       </c>
-      <c r="D65" s="2">
+      <c r="E63" s="2">
         <v>61</v>
       </c>
-      <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B64" s="6">
+        <v>245</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C66" s="4">
+      <c r="D64" s="3">
         <v>128.56200000000001</v>
       </c>
-      <c r="D66" s="2">
+      <c r="E64" s="2">
         <v>790</v>
       </c>
-      <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B65" s="6">
+        <v>245</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="4">
+      <c r="D65" s="3">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D67" s="2">
+      <c r="E65" s="2">
         <v>76437</v>
       </c>
-      <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B66" s="6">
+        <v>245</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C68" s="4">
+      <c r="D66" s="3">
         <v>80.978999999999999</v>
       </c>
-      <c r="D68" s="2">
+      <c r="E66" s="2">
         <f>22859.02*0.75</f>
         <v>17144.264999999999</v>
       </c>
-      <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B67" s="6">
+        <v>245</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="4">
+      <c r="D67" s="3">
         <v>128.49199999999999</v>
       </c>
-      <c r="D69" s="2">
+      <c r="E67" s="2">
         <v>5714.7550000000001</v>
       </c>
-      <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B68" s="6">
+        <v>245</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="4">
+      <c r="D68" s="3">
         <v>128.59899999999999</v>
       </c>
-      <c r="D70" s="2">
+      <c r="E68" s="2">
         <v>790</v>
       </c>
-      <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B69" s="6">
+        <v>245</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="4">
+      <c r="D69" s="3">
         <v>13.176</v>
       </c>
-      <c r="D71" s="6">
+      <c r="E69" s="4">
         <v>22859.02</v>
       </c>
-      <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B70" s="6">
+        <v>245</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D70" s="3">
         <v>99999.993000000002</v>
       </c>
-      <c r="D72" s="7">
+      <c r="E70" s="7">
         <v>0.2</v>
       </c>
-      <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="C73" s="4"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B71" s="6">
+        <v>246</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C74" s="4">
+      <c r="D71" s="3">
         <v>193.953</v>
       </c>
-      <c r="D74" s="6">
+      <c r="E71" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B72" s="6">
+        <v>246</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="4">
+      <c r="D72" s="3">
         <v>128.56200000000001</v>
       </c>
-      <c r="D75" s="6">
+      <c r="E72" s="4">
         <v>751.58799999999997</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B73" s="6">
+        <v>246</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="4">
+      <c r="D73" s="3">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D76" s="6">
+      <c r="E73" s="4">
         <v>114783.75</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B74" s="6">
+        <v>246</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C77" s="4">
+      <c r="D74" s="3">
         <v>80.978999999999999</v>
       </c>
-      <c r="D77" s="6">
+      <c r="E74" s="4">
         <f>75396.27*0.75</f>
         <v>56547.202499999999</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B75" s="6">
+        <v>246</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C78" s="4">
+      <c r="D75" s="3">
         <v>128.49199999999999</v>
       </c>
-      <c r="D78" s="6">
+      <c r="E75" s="4">
         <v>18849.07</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B76" s="6">
+        <v>246</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C79" s="4">
+      <c r="D76" s="3">
         <v>128.59899999999999</v>
       </c>
-      <c r="D79" s="6">
+      <c r="E76" s="4">
         <v>751.58799999999997</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A80" s="4" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B77" s="6">
         <v>246</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="3">
         <v>13.176</v>
       </c>
-      <c r="D80" s="6">
+      <c r="E77" s="4">
         <v>75396.27</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="78" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B78" s="6">
+        <v>246</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D78" s="3">
         <v>99999.993000000002</v>
       </c>
-      <c r="D81" s="7">
+      <c r="E78" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="4"/>
-      <c r="C82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B79" s="6">
+        <v>247</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C83" s="4">
+      <c r="D79" s="3">
         <v>193.953</v>
       </c>
-      <c r="D83" s="6">
+      <c r="E79" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B80" s="6">
+        <v>247</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C84" s="4">
+      <c r="D80" s="3">
         <v>128.56200000000001</v>
       </c>
-      <c r="D84" s="6">
+      <c r="E80" s="4">
         <v>261.95400000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B81" s="6">
+        <v>247</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="4">
+      <c r="D81" s="3">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D85" s="6">
+      <c r="E81" s="4">
         <v>43254</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B82" s="6">
+        <v>247</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C86" s="4">
+      <c r="D82" s="3">
         <v>80.978999999999999</v>
       </c>
-      <c r="D86" s="6">
+      <c r="E82" s="4">
         <v>32528.100000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B83" s="6">
+        <v>247</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="4">
+      <c r="D83" s="3">
         <v>128.49199999999999</v>
       </c>
-      <c r="D87" s="6">
+      <c r="E83" s="4">
         <v>10842.7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B84" s="6">
+        <v>247</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C88" s="4">
+      <c r="D84" s="3">
         <v>128.59899999999999</v>
       </c>
-      <c r="D88" s="6">
+      <c r="E84" s="4">
         <v>261.95400000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B85" s="6">
+        <v>247</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C89" s="4">
+      <c r="D85" s="3">
         <v>13.176</v>
       </c>
-      <c r="D89" s="6">
+      <c r="E85" s="4">
         <v>43370.8</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B86" s="6">
+        <v>247</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D86" s="3">
         <v>99999.993000000002</v>
       </c>
-      <c r="D90" s="7">
+      <c r="E86" s="7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="4"/>
-      <c r="C91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B87" s="6">
+        <v>248</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C92" s="4">
+      <c r="D87" s="3">
         <v>193.953</v>
       </c>
-      <c r="D92" s="1">
+      <c r="E87" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B88" s="6">
+        <v>248</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="4">
+      <c r="D88" s="3">
         <v>128.56200000000001</v>
       </c>
-      <c r="D93" s="1">
+      <c r="E88" s="4">
         <v>109.14700000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="8" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B89" s="6">
+        <v>248</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="4">
+      <c r="D89" s="3">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D94" s="1">
+      <c r="E89" s="4">
         <v>13716</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="8" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B90" s="6">
+        <v>248</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="4">
+      <c r="D90" s="3">
         <v>80.978999999999999</v>
       </c>
-      <c r="D95" s="1">
+      <c r="E90" s="4">
         <v>9991.5</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="8" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B91" s="6">
+        <v>248</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C96" s="4">
+      <c r="D91" s="3">
         <v>128.49199999999999</v>
       </c>
-      <c r="D96" s="1">
+      <c r="E91" s="4">
         <v>3330.5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B92" s="6">
+        <v>248</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C97" s="4">
+      <c r="D92" s="3">
         <v>128.59899999999999</v>
       </c>
-      <c r="D97" s="1">
+      <c r="E92" s="4">
         <v>109.14700000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B93" s="6">
+        <v>248</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C98" s="4">
+      <c r="D93" s="3">
         <v>13.176</v>
       </c>
-      <c r="D98" s="1">
+      <c r="E93" s="4">
         <v>13322</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="B94" s="6">
+        <v>248</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D94" s="3">
         <v>99999.993000000002</v>
       </c>
-      <c r="D99" s="1">
+      <c r="E94" s="4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="C100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B95" s="6">
+        <v>249</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C101" s="4">
+      <c r="D95" s="3">
         <v>193.953</v>
       </c>
-      <c r="D101" s="1">
+      <c r="E95" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B96" s="6">
+        <v>249</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C102" s="4">
+      <c r="D96" s="3">
         <v>128.56200000000001</v>
       </c>
-      <c r="D102" s="1">
+      <c r="E96" s="4">
         <v>327.44200000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B97" s="6">
+        <v>249</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C103" s="4">
+      <c r="D97" s="3">
         <v>5.9850000000000003</v>
       </c>
-      <c r="D103" s="1">
+      <c r="E97" s="4">
         <v>66960</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B98" s="6">
+        <v>249</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C104" s="4">
+      <c r="D98" s="3">
         <v>80.978999999999999</v>
       </c>
-      <c r="D104" s="1">
+      <c r="E98" s="4">
         <v>42616.815000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B99" s="6">
+        <v>249</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="4">
+      <c r="D99" s="3">
         <v>128.49199999999999</v>
       </c>
-      <c r="D105" s="1">
+      <c r="E99" s="4">
         <v>14205.61</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B100" s="6">
+        <v>249</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="4">
+      <c r="D100" s="3">
         <v>128.59899999999999</v>
       </c>
-      <c r="D106" s="1">
+      <c r="E100" s="4">
         <v>327.44200000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B101" s="6">
+        <v>249</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C107" s="4">
+      <c r="D101" s="3">
         <v>13.176</v>
       </c>
-      <c r="D107" s="1">
+      <c r="E101" s="4">
         <v>56822.42</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" s="4">
+      <c r="B102" s="6">
+        <v>249</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D102" s="3">
         <v>99999.993000000002</v>
       </c>
-      <c r="D108" s="1">
+      <c r="E102" s="4">
         <v>0.2</v>
       </c>
     </row>
@@ -2867,15 +3148,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4437,12 +4718,13 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="137.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -4955,10 +5237,13 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="86.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">

--- a/progress/data/BoQ.xlsx
+++ b/progress/data/BoQ.xlsx
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
